--- a/StructureDefinition-ext-R5-ValueSet.exp.contains.xlsx
+++ b/StructureDefinition-ext-R5-ValueSet.exp.contains.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T19:17:19.5427077+00:00</t>
+    <t>2026-02-10T04:05:33.0136333+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -639,7 +639,7 @@
   </si>
   <si>
     <t>Element `ValueSet.expansion.contains.property` is part of an existing definition because parent element `ValueSet.expansion.contains` requires a component extension (e.g., if this element is used as a content reference).
-Element `ValueSet.expansion.contains.property` is mapped to FHIR R4 structure `ValueSet`, but has no target element specified.</t>
+Element `ValueSet.expansion.contains.property` is will have a context of ValueSet.expansion.contains based on following the parent source element upwards and mapping to `ValueSet`.</t>
   </si>
   <si>
     <t>Extension.extension:property.id</t>
@@ -661,7 +661,7 @@
   </si>
   <si>
     <t>Element `ValueSet.expansion.contains.property.code` is part of an existing definition because parent element `ValueSet.expansion.contains.property` requires a cross-version extension.
-Element `ValueSet.expansion.contains.property.code` is mapped to FHIR R4 structure `ValueSet`, but has no target element specified.</t>
+Element `ValueSet.expansion.contains.property.code` is will have a context of ValueSet.expansion.contains based on following the parent source element upwards and mapping to `ValueSet`.</t>
   </si>
   <si>
     <t>Extension.extension:property.extension:code.id</t>
@@ -701,7 +701,7 @@
   </si>
   <si>
     <t>Element `ValueSet.expansion.contains.property.value[x]` is part of an existing definition because parent element `ValueSet.expansion.contains.property` requires a cross-version extension.
-Element `ValueSet.expansion.contains.property.value[x]` is mapped to FHIR R4 structure `ValueSet`, but has no target element specified.</t>
+Element `ValueSet.expansion.contains.property.value[x]` is will have a context of ValueSet.expansion.contains based on following the parent source element upwards and mapping to `ValueSet`.</t>
   </si>
   <si>
     <t>Extension.extension:property.extension:value.id</t>
@@ -733,7 +733,7 @@
   </si>
   <si>
     <t>Element `ValueSet.expansion.contains.property.subProperty` is part of an existing definition because parent element `ValueSet.expansion.contains.property` requires a cross-version extension.
-Element `ValueSet.expansion.contains.property.subProperty` is mapped to FHIR R4 structure `ValueSet`, but has no target element specified.</t>
+Element `ValueSet.expansion.contains.property.subProperty` is will have a context of ValueSet.expansion.contains based on following the parent source element upwards and mapping to `ValueSet`.</t>
   </si>
   <si>
     <t>Extension.extension:property.extension:subProperty.id</t>
@@ -746,7 +746,7 @@
   </si>
   <si>
     <t>Element `ValueSet.expansion.contains.property.subProperty.code` is part of an existing definition because parent element `ValueSet.expansion.contains.property.subProperty` requires a cross-version extension.
-Element `ValueSet.expansion.contains.property.subProperty.code` is mapped to FHIR R4 structure `ValueSet`, but has no target element specified.</t>
+Element `ValueSet.expansion.contains.property.subProperty.code` is will have a context of ValueSet.expansion.contains based on following the parent source element upwards and mapping to `ValueSet`.</t>
   </si>
   <si>
     <t>Extension.extension:property.extension:subProperty.extension:code.id</t>
@@ -783,7 +783,7 @@
   </si>
   <si>
     <t>Element `ValueSet.expansion.contains.property.subProperty.value[x]` is part of an existing definition because parent element `ValueSet.expansion.contains.property.subProperty` requires a cross-version extension.
-Element `ValueSet.expansion.contains.property.subProperty.value[x]` is mapped to FHIR R4 structure `ValueSet`, but has no target element specified.</t>
+Element `ValueSet.expansion.contains.property.subProperty.value[x]` is will have a context of ValueSet.expansion.contains based on following the parent source element upwards and mapping to `ValueSet`.</t>
   </si>
   <si>
     <t>Extension.extension:property.extension:subProperty.extension:value.id</t>
